--- a/scheme/Siscoex2/issues_metadados_siscoex2.xlsx
+++ b/scheme/Siscoex2/issues_metadados_siscoex2.xlsx
@@ -8,10 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="0_SCHEMA_METADATA" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1_ISSUES" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2_SCHEME_MEASURES" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="3_MODEL_MEASURES" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="4_MODEL_METRICS" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="SCHEME_MEASURES" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="METADATA_ISSUES" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="METADATA_MEASURES" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="METADATA_METRICS" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -50834,7 +50834,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50845,2364 +50845,94 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>rule</t>
+          <t>Indicator</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>desc</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>owner</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>table</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>column</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>constraint_name</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>length</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>limit</t>
+          <t>Value</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQMD06</t>
+          <t>MQMS01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Total number of tables with plural names</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CONFIGURACOES_GERAIS</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+          <t>Total number of tables</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQMD06</t>
+          <t>MQMS02</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Total number of tables with plural names</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>DECLARACAO_ICMS</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+          <t>Total number of columns</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MQMD06</t>
+          <t>MQMS03</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Total number of tables with plural names</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ITEM_DECLARACAO_ICMS</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+          <t>Total number of primary key</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MQMD06</t>
+          <t>MQMS04</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Total number of tables with plural names</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>PAIS</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+          <t>Total number of foreign key</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MQMD06</t>
+          <t>MQMS05</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Total number of tables with plural names</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SOLIC_EXONERA_ITENS</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>MQMD06</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Total number of tables with plural names</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SOLIC_EXONERA_PENDENCIAS</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>MQMD09</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names longer than recommended</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>DECLARACAO_ICMS</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>SIT_OUTRAS_DESPESAS_OBRIGATORIA</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="n">
-        <v>31</v>
-      </c>
-      <c r="H8" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ACRESCIMO_DEDUCAO</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>VLR_ACRESC_DED_MOEDA_NEGOCIADA</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ACRESCIMO_DEDUCAO</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>VLR_ACRESC_DED_REAL</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ALCANCE_BENEFICIO</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>SEQ_ALCANCE_BENEFICIO</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>CALCULO_TRIBUTACAO</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>VLR_BASE_CALCULO</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>CALCULO_TRIBUTACAO</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>VLR_BASE_CALC_ESPECIFICA</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>CALCULO_TRIBUTACAO</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>VLR_BASE_CALC_REDZ</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>CALCULO_TRIBUTACAO</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>VLR_ALIQUOTA</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>CALCULO_TRIBUTACAO</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>VLR_ALQT_ESPECIFICA</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>CALCULO_TRIBUTACAO</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>VLR_ALQT_REDZ</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>CALCULO_TRIBUTACAO</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>VLR_PERC_REDCUCAO_ALQT_RDZ</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>CALCULO_TRIBUTACAO</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>VLR_A_REDUZIR</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>CALCULO_TRIBUTACAO</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>VLR_DEVIDO</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>CALCULO_TRIBUTACAO</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>VLR_SUSPENSO</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>CALCULO_TRIBUTACAO</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>VLR_IMPOSTO_RECOLHER</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>CALCULO_TRIBUTACAO</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>VLR_NORMAL</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>CALCULO_TRIBUTACAO</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>VLR_ORIG_DEVIDO</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>CALCULO_TRIBUTACAO</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>VLR_PERC_PAG_PROPORCIONAL</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>CALCULO_TRIBUTACAO</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>VLR_CALC_PAG_PROPORCIONAL</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>CODIGO_SITRAM_BENEFICIO</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>SEQ_CODIGO_SITRAM_BENEFICIO</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>COMP_FUND_LEG_BENEFICIO</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>SEQ_COMP_FUND_LEG_BENEFICIO</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>DECLARACAO_ADUANEIRA_VINCULADA</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>COD_ITEM_FUNDAMENTO</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>DECLARACAO_ADUANEIRA_VINCULADA</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>COD_ITEM_NCM_ASSOCIADA</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>DECLARACAO_ADUANEIRA_VINCULADA</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>COD_ITEM_REGIME</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>DECLARACAO_ADUANEIRA_VINCULADA</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>NUM_DECLARACAO_ORIGINAL</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>DECLARACAO_ADUANEIRA_VINCULADA</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>NUM_ITEM_DECL_ORIGINAL</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>DECLARACAO_ADUANEIRA_VINCULADA</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>NUM_VERSAO_DECLARACAO_ORIGINAL</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>DECLARACAO_ADUANEIRA_VINCULADA</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>NUM_VERSAO_DEC_VINCULADA</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>DECLARACAO_ADUANEIRA_VINCULADA</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>QTD_MERC_UNID_ESTATISTICA</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>DECLARACAO_ADUANEIRA_VINCULADA</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>TXT_MNEMONICO_SISTEMA_CONTROLE</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>DECLARACAO_ADUANEIRA_VINCULADA</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>TXT_UNIDADE_ESTATISTICA</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>DECLARACAO_ADUANEIRA_VINCULADA</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>VLR_FRETE_REAL</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>DECLARACAO_ADUANEIRA_VINCULADA</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>VLR_SEGURO_REAL</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>DOCS_OBRIGATORIOS_BENEFICIO</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>SEQ_DOC_OBRIGATORIOS_BENEFICIO</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>DOCS_OBRIGATORIOS_BENEFICIO</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>SEQ_TIPO_DOC_ANEXADO</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>DUIMP</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>VLR_FRETE_TOTAL_DEST_DOLAR</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>DUIMP</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>VLR_FRETE_TOTAL_DEST_REAL</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>DUIMP</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>VLR_FRETE_TOTAL_DOLAR</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>DUIMP</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>VLR_SEGURO_DOLAR</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>DUIMP</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>VLR_FRETE_TOTAL_MOEDA_UTILIZAD</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>DUIMP_RESUMO</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>VLR_MERC_EMBARQUE_DOLAR</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>DUIMP_RESUMO</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>VLR_MERC_EMBARQUE_REAL</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>DUIMP_RESUMO</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>VLR_MERC_DESCARGA_REAL</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>DUIMP_TRIBUTO_CALCULADO</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>VLR_CALCULADO</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>DUIMP_TRIBUTO_CALCULADO</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>VLR_A_REDUZIR</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>DUIMP_TRIBUTO_CALCULADO</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>VLR_SUSPENSO</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>DUIMP_TRIBUTO_CALCULADO</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>VLR_DEVIDO</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>DUIMP_TRIBUTO_CALCULADO</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>VLR_IPST_A_RECOLHER</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>ITEM_DEC_ICMS_EXO_COMP_BENEF</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>SEQ_COMP_FUND_LEG_BENEFICIO</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>ITEM_DUIMP</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>DAT_HORA_FATO_GERADOR</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>ITEM_DUIMP</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>TIP_INDICACAO_IMPORTACAO_TERC</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>ITEM_DUIMP</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>VLR_ADUANEIRO</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>ITEM_DUIMP</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>VLR_SEGURO_RATEADO</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>ITEM_DUIMP</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>VLR_FRETE_RATEADO</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>ITEM_DUIMP</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>VLR_MERCADORIA_COND_VENDA_REAL</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>ITEM_DUIMP</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>VLR_MERCADORIA_COND_VENDA_MOED</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>ITEM_DUIMP</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>VLR_UNITARIO_CONDICAO_VENDA</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>ITEM_DUIMP</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>VLR_MERC</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>NOTA_FISCAL_DECLARACAO</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>VLR_FECOP_IMPORTACAO</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>NOTA_FISCAL_DECLARACAO</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>VLR_FECOP_ST</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>NOTA_FISCAL_DECLARACAO</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>VLR_ICMS</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>NOTA_FISCAL_DECLARACAO</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>SEQ_NF_REFERENCIADA</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>PAGAMENTO_DEBITO</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>COD_BANCO_JUROS</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>PAGAMENTO_DEBITO</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>COD_RECEITA_JUROS</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>PAGAMENTO_DEBITO</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>DAT_HOR_PAGAMENTO_JUROS</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>PAGAMENTO_DEBITO</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>DSC_RECEITA_JUROS</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>PAGAMENTO_DEBITO</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>NUM_AGENCIA_JUROS</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>PAGAMENTO_DEBITO</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>NUM_CONTA_JUROS</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>PAGAMENTO_DEBITO</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>VLR_TRIBUTO</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>PAGAMENTO_DEBITO</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>VLR_TRIBUTO_JUROS</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>SITUACAO_ESPECIAL_DESPACHO</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>VLR_SEGURO_REAL</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>SISCOEX2</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>TERMOS_ACORDO_BENEFICIO</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>SEQ_TERMOS_ACORDO_BENEFICIO</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
+          <t>Total number of unique key</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -53215,7 +50945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53226,94 +50956,2364 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Indicator</t>
+          <t>rule</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>desc</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Value</t>
+          <t>owner</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>column</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>constraint_name</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>length</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>limit</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQMD01</t>
+          <t>MQME10</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Total number of tables</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
+          <t>Total number of tables with plural names</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CONFIGURACOES_GERAIS</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQMD02</t>
+          <t>MQME10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Total number of columns</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>809</v>
-      </c>
+          <t>Total number of tables with plural names</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>DECLARACAO_ICMS</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MQMD03</t>
+          <t>MQME10</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Total number of primary key</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>98</v>
-      </c>
+          <t>Total number of tables with plural names</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ITEM_DECLARACAO_ICMS</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MQMD04</t>
+          <t>MQME10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Total number of foreign key</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>102</v>
-      </c>
+          <t>Total number of tables with plural names</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>PAIS</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MQMD05</t>
+          <t>MQME10</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Total number of unique key</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>14</v>
-      </c>
+          <t>Total number of tables with plural names</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SOLIC_EXONERA_ITENS</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MQME10</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Total number of tables with plural names</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SOLIC_EXONERA_PENDENCIAS</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MQME13</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Total number of tables with column names longer than recommended</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>DECLARACAO_ICMS</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SIT_OUTRAS_DESPESAS_OBRIGATORIA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>31</v>
+      </c>
+      <c r="H8" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ACRESCIMO_DEDUCAO</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>VLR_ACRESC_DED_MOEDA_NEGOCIADA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ACRESCIMO_DEDUCAO</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>VLR_ACRESC_DED_REAL</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ALCANCE_BENEFICIO</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SEQ_ALCANCE_BENEFICIO</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CALCULO_TRIBUTACAO</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>VLR_BASE_CALCULO</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CALCULO_TRIBUTACAO</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>VLR_BASE_CALC_ESPECIFICA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CALCULO_TRIBUTACAO</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>VLR_BASE_CALC_REDZ</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CALCULO_TRIBUTACAO</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>VLR_ALIQUOTA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>CALCULO_TRIBUTACAO</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>VLR_ALQT_ESPECIFICA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>CALCULO_TRIBUTACAO</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>VLR_ALQT_REDZ</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>CALCULO_TRIBUTACAO</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>VLR_PERC_REDCUCAO_ALQT_RDZ</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>CALCULO_TRIBUTACAO</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>VLR_A_REDUZIR</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>CALCULO_TRIBUTACAO</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>VLR_DEVIDO</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>CALCULO_TRIBUTACAO</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>VLR_SUSPENSO</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>CALCULO_TRIBUTACAO</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>VLR_IMPOSTO_RECOLHER</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>CALCULO_TRIBUTACAO</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>VLR_NORMAL</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>CALCULO_TRIBUTACAO</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>VLR_ORIG_DEVIDO</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>CALCULO_TRIBUTACAO</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>VLR_PERC_PAG_PROPORCIONAL</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>CALCULO_TRIBUTACAO</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>VLR_CALC_PAG_PROPORCIONAL</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>CODIGO_SITRAM_BENEFICIO</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>SEQ_CODIGO_SITRAM_BENEFICIO</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>COMP_FUND_LEG_BENEFICIO</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>SEQ_COMP_FUND_LEG_BENEFICIO</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>DECLARACAO_ADUANEIRA_VINCULADA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>COD_ITEM_FUNDAMENTO</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>DECLARACAO_ADUANEIRA_VINCULADA</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>COD_ITEM_NCM_ASSOCIADA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>DECLARACAO_ADUANEIRA_VINCULADA</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>COD_ITEM_REGIME</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>DECLARACAO_ADUANEIRA_VINCULADA</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>NUM_DECLARACAO_ORIGINAL</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>DECLARACAO_ADUANEIRA_VINCULADA</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>NUM_ITEM_DECL_ORIGINAL</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>DECLARACAO_ADUANEIRA_VINCULADA</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>NUM_VERSAO_DECLARACAO_ORIGINAL</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>DECLARACAO_ADUANEIRA_VINCULADA</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>NUM_VERSAO_DEC_VINCULADA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>DECLARACAO_ADUANEIRA_VINCULADA</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>QTD_MERC_UNID_ESTATISTICA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>DECLARACAO_ADUANEIRA_VINCULADA</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>TXT_MNEMONICO_SISTEMA_CONTROLE</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>DECLARACAO_ADUANEIRA_VINCULADA</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>TXT_UNIDADE_ESTATISTICA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>DECLARACAO_ADUANEIRA_VINCULADA</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>VLR_FRETE_REAL</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>DECLARACAO_ADUANEIRA_VINCULADA</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>VLR_SEGURO_REAL</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>DOCS_OBRIGATORIOS_BENEFICIO</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>SEQ_DOC_OBRIGATORIOS_BENEFICIO</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>DOCS_OBRIGATORIOS_BENEFICIO</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>SEQ_TIPO_DOC_ANEXADO</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>DUIMP</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>VLR_FRETE_TOTAL_DEST_DOLAR</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>DUIMP</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>VLR_FRETE_TOTAL_DEST_REAL</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>DUIMP</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>VLR_FRETE_TOTAL_DOLAR</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>DUIMP</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>VLR_SEGURO_DOLAR</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>DUIMP</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>VLR_FRETE_TOTAL_MOEDA_UTILIZAD</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>DUIMP_RESUMO</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>VLR_MERC_EMBARQUE_DOLAR</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>DUIMP_RESUMO</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>VLR_MERC_EMBARQUE_REAL</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>DUIMP_RESUMO</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>VLR_MERC_DESCARGA_REAL</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>DUIMP_TRIBUTO_CALCULADO</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>VLR_CALCULADO</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>DUIMP_TRIBUTO_CALCULADO</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>VLR_A_REDUZIR</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>DUIMP_TRIBUTO_CALCULADO</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>VLR_SUSPENSO</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>DUIMP_TRIBUTO_CALCULADO</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>VLR_DEVIDO</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>DUIMP_TRIBUTO_CALCULADO</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>VLR_IPST_A_RECOLHER</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>ITEM_DEC_ICMS_EXO_COMP_BENEF</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>SEQ_COMP_FUND_LEG_BENEFICIO</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>ITEM_DUIMP</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>DAT_HORA_FATO_GERADOR</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>ITEM_DUIMP</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>TIP_INDICACAO_IMPORTACAO_TERC</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>ITEM_DUIMP</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>VLR_ADUANEIRO</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>ITEM_DUIMP</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>VLR_SEGURO_RATEADO</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>ITEM_DUIMP</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>VLR_FRETE_RATEADO</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>ITEM_DUIMP</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>VLR_MERCADORIA_COND_VENDA_REAL</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>ITEM_DUIMP</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>VLR_MERCADORIA_COND_VENDA_MOED</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>ITEM_DUIMP</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>VLR_UNITARIO_CONDICAO_VENDA</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>ITEM_DUIMP</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>VLR_MERC</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>NOTA_FISCAL_DECLARACAO</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>VLR_FECOP_IMPORTACAO</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>NOTA_FISCAL_DECLARACAO</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>VLR_FECOP_ST</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>NOTA_FISCAL_DECLARACAO</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>VLR_ICMS</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>NOTA_FISCAL_DECLARACAO</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>SEQ_NF_REFERENCIADA</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>PAGAMENTO_DEBITO</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>COD_BANCO_JUROS</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>PAGAMENTO_DEBITO</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>COD_RECEITA_JUROS</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>PAGAMENTO_DEBITO</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>DAT_HOR_PAGAMENTO_JUROS</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>PAGAMENTO_DEBITO</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>DSC_RECEITA_JUROS</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>PAGAMENTO_DEBITO</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>NUM_AGENCIA_JUROS</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>PAGAMENTO_DEBITO</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>NUM_CONTA_JUROS</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>PAGAMENTO_DEBITO</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>VLR_TRIBUTO</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>PAGAMENTO_DEBITO</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>VLR_TRIBUTO_JUROS</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>SITUACAO_ESPECIAL_DESPACHO</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>VLR_SEGURO_REAL</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>SISCOEX2</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>TERMOS_ACORDO_BENEFICIO</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>SEQ_TERMOS_ACORDO_BENEFICIO</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -53354,46 +53354,46 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQMD06</t>
+          <t>MQME00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Total number of tables with plural names</t>
+          <t>Total number of columns</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>809</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQMD09</t>
+          <t>MQMEA1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Total number of tables with column names longer than recommended</t>
+          <t>Total number of length-required columns</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MQMD10</t>
+          <t>MQMEA2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Total number of tables with column names without comments</t>
+          <t>Total number of NUMBER columns</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>71</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -53407,7 +53407,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53435,29 +53435,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IQMD01</t>
+          <t>IQME01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Table names in singular</t>
+          <t>Columns with comments</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>94.00%</t>
+          <t>91.22%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IQMD02</t>
+          <t>IQME02</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Table names with recommended size</t>
+          <t>Columns with data type</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -53469,12 +53469,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IQMD03</t>
+          <t>IQME03</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Table columns with correct prefixes</t>
+          <t>Length-required columns with data length</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -53486,46 +53486,46 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IQMD04</t>
+          <t>IQME04</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Table columns with recommend size</t>
+          <t>NUMBER columns with valid scale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>99.88%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IQMD05</t>
+          <t>IQME05</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Table columns with comments</t>
+          <t>Columns with valid num_distinct</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>91.22%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IQMD06</t>
+          <t>IQME06</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Table with standard PK prefixes</t>
+          <t>Columns with valid num_nulls</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -53537,32 +53537,15 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IQMD07</t>
+          <t>IQME07</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Table with standard FK prefixes</t>
+          <t>Columns with valid density</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
-        <is>
-          <t>100.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>IQMD08</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Table with standard UK prefixes</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>

--- a/scheme/Siscoex2/issues_metadados_siscoex2.xlsx
+++ b/scheme/Siscoex2/issues_metadados_siscoex2.xlsx
@@ -50862,7 +50862,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQMS01</t>
+          <t>MQME001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -50877,7 +50877,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQMS02</t>
+          <t>MQME002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -50892,7 +50892,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MQMS03</t>
+          <t>MQME003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -50907,7 +50907,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MQMS04</t>
+          <t>MQME004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -50922,7 +50922,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MQMS05</t>
+          <t>MQME005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -50998,7 +50998,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQME10</t>
+          <t>MQME012</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -51024,7 +51024,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQME10</t>
+          <t>MQME012</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -51050,7 +51050,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MQME10</t>
+          <t>MQME012</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -51076,7 +51076,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MQME10</t>
+          <t>MQME012</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -51102,7 +51102,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MQME10</t>
+          <t>MQME012</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -51128,7 +51128,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MQME10</t>
+          <t>MQME012</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -51154,7 +51154,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MQME13</t>
+          <t>MQME015</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -51188,7 +51188,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -51218,7 +51218,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -51248,7 +51248,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -51278,7 +51278,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -51308,7 +51308,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -51338,7 +51338,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -51368,7 +51368,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -51398,7 +51398,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -51428,7 +51428,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -51458,7 +51458,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -51488,7 +51488,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -51518,7 +51518,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -51548,7 +51548,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -51578,7 +51578,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -51608,7 +51608,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -51638,7 +51638,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -51668,7 +51668,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -51698,7 +51698,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -51728,7 +51728,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -51758,7 +51758,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -51788,7 +51788,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -51818,7 +51818,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -51848,7 +51848,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -51878,7 +51878,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -51908,7 +51908,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -51938,7 +51938,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -51968,7 +51968,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -51998,7 +51998,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -52028,7 +52028,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -52058,7 +52058,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -52088,7 +52088,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -52118,7 +52118,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -52148,7 +52148,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -52178,7 +52178,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -52208,7 +52208,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -52238,7 +52238,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -52268,7 +52268,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -52298,7 +52298,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -52328,7 +52328,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -52358,7 +52358,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -52388,7 +52388,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -52418,7 +52418,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -52448,7 +52448,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -52478,7 +52478,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -52508,7 +52508,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -52538,7 +52538,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -52568,7 +52568,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -52598,7 +52598,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -52628,7 +52628,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -52658,7 +52658,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -52688,7 +52688,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -52718,7 +52718,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -52748,7 +52748,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -52778,7 +52778,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -52808,7 +52808,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -52838,7 +52838,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -52868,7 +52868,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -52898,7 +52898,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -52928,7 +52928,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -52958,7 +52958,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -52988,7 +52988,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -53018,7 +53018,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -53048,7 +53048,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -53078,7 +53078,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -53108,7 +53108,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -53138,7 +53138,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -53168,7 +53168,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -53198,7 +53198,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -53228,7 +53228,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -53258,7 +53258,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -53288,7 +53288,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -53326,7 +53326,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53354,45 +53354,30 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQME00</t>
+          <t>MQME006</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Total number of columns</t>
+          <t>Total number of length-required columns</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>809</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQMEA1</t>
+          <t>MQME007</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Total number of length-required columns</t>
+          <t>Total number of NUMBER columns</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>MQMEA2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Total number of NUMBER columns</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
         <v>426</v>
       </c>
     </row>
@@ -53407,7 +53392,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53435,29 +53420,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IQME01</t>
+          <t>MQID001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Columns with comments</t>
+          <t>Table names in singular</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>91.22%</t>
+          <t>94.00%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IQME02</t>
+          <t>MQID002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Columns with data type</t>
+          <t>Table with recommended name length</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -53469,12 +53454,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IQME03</t>
+          <t>MQID003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Length-required columns with data length</t>
+          <t>Columns with correct prefixes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -53486,46 +53471,46 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IQME04</t>
+          <t>MQID004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NUMBER columns with valid scale</t>
+          <t>Columns with recommended name size</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>99.88%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IQME05</t>
+          <t>MQID005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Columns with valid num_distinct</t>
+          <t>Columns with comments</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>91.22%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IQME06</t>
+          <t>MQID006</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Columns with valid num_nulls</t>
+          <t>Table with standard PK prefixes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -53537,15 +53522,83 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IQME07</t>
+          <t>MQID007</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Columns with valid density</t>
+          <t>Table with standard FK prefixes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MQID008</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Table with standard UK prefixes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MQID009</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>NUMBER columns with valid scale</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MQID010</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Columns with valid num_distinct</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MQID011</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Columns with valid num_nulls</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
